--- a/data/TC001A_Login.xlsx
+++ b/data/TC001A_Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
   <si>
     <t>PassWord</t>
-  </si>
-  <si>
-    <t>Verify Username</t>
   </si>
   <si>
     <t>DemoSalesManager</t>
@@ -33,16 +30,13 @@
     <t>crmsfa</t>
   </si>
   <si>
-    <t>Demo Sales Manager</t>
-  </si>
-  <si>
     <t>DemoCSR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,50 +379,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C1" sqref="C1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
